--- a/Glaze_test.xlsx
+++ b/Glaze_test.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souja\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abi-rishra.mfg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489BBA08-EDDE-4644-91AF-3F947FFD0FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{12A4AFAB-36BB-4592-9C96-79A8EBD45865}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" r:id="rId1"/>
     <sheet name="Test 2" sheetId="2" r:id="rId2"/>
     <sheet name="Test 3" sheetId="3" r:id="rId3"/>
     <sheet name="Test 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Test 5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Glaze</t>
   </si>
@@ -66,12 +66,27 @@
   </si>
   <si>
     <t>+ 20 ml water</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>+ 10 ml water</t>
+  </si>
+  <si>
+    <t>+ 30 ml water</t>
+  </si>
+  <si>
+    <t>+ 40 ml water</t>
+  </si>
+  <si>
+    <t>+ 50 ml water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,7 +447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B215123-FF78-4B16-B9BC-B23ECE82D247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -528,7 +543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE9B355-18DC-45DA-B762-6C19AFA1A3C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -678,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995E6006-C0EF-4A20-BD5A-6EC8D15647DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -807,10 +822,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FD9665-30AF-421B-B3E4-B918220B72E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -959,7 +974,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:D11">
+  <sortState ref="B9:D11">
     <sortCondition ref="D9:D11"/>
   </sortState>
   <mergeCells count="2">
@@ -968,4 +983,122 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1.64</v>
+      </c>
+      <c r="C2">
+        <v>347</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.633</v>
+      </c>
+      <c r="C3">
+        <v>351</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1.625</v>
+      </c>
+      <c r="C4">
+        <v>352</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1.621</v>
+      </c>
+      <c r="C5">
+        <v>352</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="C6">
+        <v>353</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1.609</v>
+      </c>
+      <c r="C7">
+        <v>355</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Glaze_test.xlsx
+++ b/Glaze_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abi-rishra.mfg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souja\Documents\GitHub\abi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB854C16-94ED-4451-B1A0-8FC05D1F1BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,16 @@
     <sheet name="Test 3" sheetId="3" r:id="rId3"/>
     <sheet name="Test 4" sheetId="4" r:id="rId4"/>
     <sheet name="Test 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Test 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Test 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Test 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Test 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Test 10" sheetId="10" r:id="rId10"/>
+    <sheet name="Test 11" sheetId="11" r:id="rId11"/>
+    <sheet name="Test 12" sheetId="12" r:id="rId12"/>
+    <sheet name="Test 13" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>Glaze</t>
   </si>
@@ -81,13 +90,189 @@
   </si>
   <si>
     <t>+ 50 ml water</t>
+  </si>
+  <si>
+    <r>
+      <t>CaCl</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Virgin + CMC (Mean)</t>
+  </si>
+  <si>
+    <r>
+      <t>+ 10 ml CaCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+ 15 ml CaCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+ 20 ml CaCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+ 25 ml CaCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+ 30 ml CaCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+ 2 ml CaCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+ 4 ml CaCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+ 6 ml CaCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+ 8 ml CaCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>CaCl2</t>
+  </si>
+  <si>
+    <t>Thickness-HA</t>
+  </si>
+  <si>
+    <t>Thickness-Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +282,23 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -133,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,7 +652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -542,8 +747,184 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB815FA-E372-428B-9793-8341751B8ED2}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1.619</v>
+      </c>
+      <c r="D2">
+        <v>349</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>1.599</v>
+      </c>
+      <c r="D3">
+        <v>345</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="D4">
+        <v>341</v>
+      </c>
+      <c r="E4">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>1.599</v>
+      </c>
+      <c r="D5">
+        <v>339</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.5</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>1.599</v>
+      </c>
+      <c r="D6">
+        <v>338</v>
+      </c>
+      <c r="E6">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBFE483-593A-48E0-8D44-A10F411279D5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B13B660-1B44-42EA-BF44-9F5783549907}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A621FAC5-6B55-451C-BF63-C38479430F14}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -693,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -822,7 +1203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -974,7 +1355,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B9:D11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:D11">
     <sortCondition ref="D9:D11"/>
   </sortState>
   <mergeCells count="2">
@@ -986,12 +1367,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1101,4 +1480,730 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D55F37-CAFD-4FE6-B59F-95CCD09A68AF}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="C2">
+        <v>347</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1.603</v>
+      </c>
+      <c r="C3">
+        <v>349</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.605</v>
+      </c>
+      <c r="C4">
+        <v>349</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1.607</v>
+      </c>
+      <c r="C5">
+        <v>349</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1.609</v>
+      </c>
+      <c r="C6">
+        <v>350</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1.623</v>
+      </c>
+      <c r="C7">
+        <v>349</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <f>ROUND(AVERAGE(B2:B7), 3)</f>
+        <v>1.615</v>
+      </c>
+      <c r="C9">
+        <f>ROUND(AVERAGE(C2:C7), 0)</f>
+        <v>349</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1.6339999999999999</v>
+      </c>
+      <c r="C10">
+        <v>247</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="C11">
+        <v>87</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1.63</v>
+      </c>
+      <c r="C12">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="C14">
+        <v>-23</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0CBA6D-EFDD-4DEC-8300-B59A4D8F21E1}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1.62</v>
+      </c>
+      <c r="C2">
+        <v>337</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="C3">
+        <v>342</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.623</v>
+      </c>
+      <c r="C4">
+        <v>341</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1.623</v>
+      </c>
+      <c r="C5">
+        <v>343</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="C6">
+        <v>345</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f>ROUND(AVERAGE(B2:B6), 3)</f>
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="C8">
+        <f>ROUND(AVERAGE(C2:C6), 0)</f>
+        <v>342</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1.619</v>
+      </c>
+      <c r="C9">
+        <v>332</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="C10">
+        <v>310</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>1.615</v>
+      </c>
+      <c r="C11">
+        <v>285</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="C12">
+        <v>240</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B804854E-05B8-4D9B-A9D9-20A9AD31DC5C}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="C2">
+        <v>340</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1.6165</v>
+      </c>
+      <c r="C3">
+        <v>340</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.617</v>
+      </c>
+      <c r="C4">
+        <v>340</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="C5">
+        <v>341</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1.62</v>
+      </c>
+      <c r="C6">
+        <v>341</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f>ROUND(AVERAGE(B2:B6), 3)</f>
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="C8">
+        <f>ROUND(AVERAGE(C2:C6), 0)</f>
+        <v>340</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1.6142000000000001</v>
+      </c>
+      <c r="C9">
+        <v>342</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1.613</v>
+      </c>
+      <c r="C10">
+        <v>344</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>1.6117999999999999</v>
+      </c>
+      <c r="C11">
+        <v>346</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>1.61</v>
+      </c>
+      <c r="C12">
+        <v>348</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD6109E-11F2-40DB-A7BB-2F32BB8FF70A}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1.6114999999999999</v>
+      </c>
+      <c r="D2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1.607</v>
+      </c>
+      <c r="D3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1.601</v>
+      </c>
+      <c r="D4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="D5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1.595</v>
+      </c>
+      <c r="D6">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Glaze_test.xlsx
+++ b/Glaze_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souja\Documents\GitHub\abi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB854C16-94ED-4451-B1A0-8FC05D1F1BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A368E604-EC52-4725-8AA0-235649868B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
   <si>
     <t>Glaze</t>
   </si>
@@ -266,6 +266,15 @@
   </si>
   <si>
     <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>RotationTime</t>
   </si>
 </sst>
 </file>
@@ -330,14 +339,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB815FA-E372-428B-9793-8341751B8ED2}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,10 +802,10 @@
       <c r="D2">
         <v>349</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -887,38 +896,421 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBFE483-593A-48E0-8D44-A10F411279D5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1.659</v>
+      </c>
+      <c r="D2">
+        <v>340</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>115</v>
+      </c>
+      <c r="C3">
+        <v>1.583</v>
+      </c>
+      <c r="D3">
+        <v>220</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>130</v>
+      </c>
+      <c r="C4">
+        <v>1.577</v>
+      </c>
+      <c r="D4">
+        <v>307</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>130</v>
+      </c>
+      <c r="C5">
+        <v>1.577</v>
+      </c>
+      <c r="D5">
+        <v>330</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5.5</v>
+      </c>
+      <c r="B6">
+        <v>130</v>
+      </c>
+      <c r="C6">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="D6">
+        <v>334</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="D7">
+        <v>334</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B13B660-1B44-42EA-BF44-9F5783549907}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="7" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1.645</v>
+      </c>
+      <c r="E2">
+        <v>-34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5.7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>1.609</v>
+      </c>
+      <c r="E3">
+        <v>346</v>
+      </c>
+      <c r="F3">
+        <v>31.5</v>
+      </c>
+      <c r="G3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>1.633</v>
+      </c>
+      <c r="E4">
+        <v>338</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5.7</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>220</v>
+      </c>
+      <c r="D5">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="E5">
+        <v>344</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A621FAC5-6B55-451C-BF63-C38479430F14}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="8" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1.657</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>130</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>1.641</v>
+      </c>
+      <c r="F3">
+        <v>346</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>160</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="F4">
+        <v>332</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>125</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1.649</v>
+      </c>
+      <c r="F5">
+        <v>346</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -952,7 +1344,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -966,7 +1358,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3">
         <v>1.5654999999999999</v>
       </c>
@@ -978,7 +1370,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4">
         <v>1.583</v>
       </c>
@@ -990,7 +1382,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5">
         <v>1.5649999999999999</v>
       </c>
@@ -1002,7 +1394,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6">
         <v>1.581</v>
       </c>
@@ -1014,7 +1406,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7">
         <v>1.5845</v>
       </c>
@@ -1026,7 +1418,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -1040,7 +1432,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9">
         <v>1.569</v>
       </c>
@@ -1052,7 +1444,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10">
         <v>1.554</v>
       </c>
@@ -1099,7 +1491,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2">
@@ -1110,7 +1502,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3">
         <v>1.59</v>
       </c>
@@ -1119,7 +1511,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4">
         <v>1.59</v>
       </c>
@@ -1128,7 +1520,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5">
         <v>1.589</v>
       </c>
@@ -1137,7 +1529,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6">
         <v>1.5885</v>
       </c>
@@ -1146,7 +1538,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7">
         <v>1.587</v>
       </c>
@@ -1155,7 +1547,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -1166,7 +1558,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9">
         <v>1.639</v>
       </c>
@@ -1175,7 +1567,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10">
         <v>1.6385000000000001</v>
       </c>
@@ -1184,7 +1576,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11">
         <v>1.6379999999999999</v>
       </c>
@@ -1231,7 +1623,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -1245,7 +1637,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3">
         <v>1.6274999999999999</v>
       </c>
@@ -1257,7 +1649,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4">
         <v>1.623</v>
       </c>
@@ -1269,7 +1661,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5">
         <v>1.5569999999999999</v>
       </c>
@@ -1281,7 +1673,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6">
         <v>1.556</v>
       </c>
@@ -1293,7 +1685,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7">
         <v>1.6220000000000001</v>
       </c>
@@ -1305,7 +1697,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8">
         <v>1.5845</v>
       </c>
@@ -1317,7 +1709,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9">
@@ -1331,7 +1723,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10">
         <v>1.544</v>
       </c>
@@ -1343,7 +1735,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11">
         <v>1.609</v>
       </c>

--- a/Glaze_test.xlsx
+++ b/Glaze_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souja\Documents\GitHub\abi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A368E604-EC52-4725-8AA0-235649868B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA6B0A7-18A0-4D87-85C3-E07195AB0C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" r:id="rId1"/>
@@ -761,7 +761,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +899,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B13B660-1B44-42EA-BF44-9F5783549907}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A621FAC5-6B55-451C-BF63-C38479430F14}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,7 +1879,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,7 +1906,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -1923,6 +1923,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
       <c r="B3">
         <v>1.603</v>
       </c>
@@ -1937,6 +1938,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4">
         <v>1.605</v>
       </c>
@@ -1951,6 +1953,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5">
         <v>1.607</v>
       </c>
@@ -1965,6 +1968,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6">
         <v>1.609</v>
       </c>
@@ -1979,6 +1983,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7">
         <v>1.623</v>
       </c>
@@ -2097,6 +2102,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2107,7 +2115,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2142,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -2151,6 +2159,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
       <c r="B3">
         <v>1.6240000000000001</v>
       </c>
@@ -2165,6 +2174,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4">
         <v>1.623</v>
       </c>
@@ -2179,6 +2189,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5">
         <v>1.623</v>
       </c>
@@ -2193,6 +2204,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6">
         <v>1.6279999999999999</v>
       </c>
@@ -2297,6 +2309,9 @@
       <c r="A13" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2306,7 +2321,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2315,7 +2330,7 @@
     <col min="2" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2348,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -2350,6 +2365,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
       <c r="B3">
         <v>1.6165</v>
       </c>
@@ -2364,6 +2380,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4">
         <v>1.617</v>
       </c>
@@ -2378,6 +2395,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5">
         <v>1.6180000000000001</v>
       </c>
@@ -2392,6 +2410,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6">
         <v>1.62</v>
       </c>
@@ -2493,6 +2512,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2502,7 +2524,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
